--- a/lab4/multi_control_signal.xlsx
+++ b/lab4/multi_control_signal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junahyung/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amy_hyunji/Documents/GitHub/Computer_Architecture/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9088AEE1-42D1-144D-B8ED-2EB0D722CEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF391567-8B89-3C42-A66B-6929759E5A96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{E26F11E2-5A34-E744-9FCB-2E66E369145F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{E26F11E2-5A34-E744-9FCB-2E66E369145F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,24 +22,19 @@
     <sheet name="LW" sheetId="6" r:id="rId7"/>
     <sheet name="SW" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet4" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="93">
   <si>
     <t>IF</t>
   </si>
@@ -146,21 +141,12 @@
     <t>JALR</t>
   </si>
   <si>
-    <t>jalr</t>
-  </si>
-  <si>
-    <t>ALUWR</t>
-  </si>
-  <si>
     <t>CUR_STATE</t>
   </si>
   <si>
     <t>NEXT_STATE</t>
   </si>
   <si>
-    <t>7b0000000</t>
-  </si>
-  <si>
     <t>7b0010011</t>
   </si>
   <si>
@@ -185,19 +171,206 @@
     <t>RF_WE</t>
   </si>
   <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4'b1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b0110011(R)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JALR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2b00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2b10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2b01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage7</t>
+  </si>
+  <si>
+    <t>stage8</t>
+  </si>
+  <si>
+    <t>stage9</t>
+  </si>
+  <si>
+    <t>stage10</t>
+  </si>
+  <si>
+    <t>stage11</t>
+  </si>
+  <si>
+    <t>stage12</t>
+  </si>
+  <si>
+    <t>stage13</t>
+  </si>
+  <si>
+    <t>stage14</t>
+  </si>
+  <si>
+    <t>stage15</t>
+  </si>
+  <si>
+    <t>stage16</t>
+  </si>
+  <si>
+    <t>stage17</t>
+  </si>
+  <si>
+    <t>stage18</t>
+  </si>
+  <si>
+    <t>stage19</t>
+  </si>
+  <si>
+    <t>stage20</t>
+  </si>
+  <si>
+    <t>stage21</t>
+  </si>
+  <si>
+    <t>stage22</t>
+  </si>
+  <si>
+    <t>stage23</t>
+  </si>
+  <si>
+    <t>LW WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JALR EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/R WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st/LW ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAL/JALR WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,11 +394,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,7 +415,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,9 +717,9 @@
       <selection activeCell="C11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -565,7 +739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -634,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -648,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -663,26 +837,631 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E93B908-491E-5F49-8EFB-A2C9ECF345A4}">
+  <dimension ref="A3:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="1:14">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E3BC1A-47D5-5B47-98CB-EA655695ECD1}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -693,34 +1472,31 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -734,54 +1510,51 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -790,19 +1563,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -816,14 +1586,14 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -831,24 +1601,21 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -864,32 +1631,30 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -897,20 +1662,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36D5533-01C8-E24E-835F-C2D5A6AEE050}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B8" sqref="B8:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -921,34 +1686,31 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -962,34 +1724,31 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -997,20 +1756,20 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -1018,34 +1777,64 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1056,52 +1845,50 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BD70C7-F3D4-3D42-B953-2F77805DE31E}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B6" sqref="B6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1112,34 +1899,31 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1153,54 +1937,51 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1209,39 +1990,36 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1250,24 +2028,21 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1283,52 +2058,50 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAC7DD5-3F1C-374E-A72C-0008F5EC44A1}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B8" sqref="B8:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1339,34 +2112,31 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1380,34 +2150,31 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1417,18 +2184,18 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="D5">
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -1436,19 +2203,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1458,43 +2222,40 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1510,11 +2271,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1523,39 +2284,37 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043A2142-CCF2-244B-B100-0796EEB03A9E}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1566,34 +2325,31 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1607,54 +2363,51 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1663,19 +2416,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1689,14 +2439,14 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -1704,24 +2454,21 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1737,52 +2484,50 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F00F5B-E5ED-7C47-BE0A-3E2B1EB42986}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1793,34 +2538,31 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1834,54 +2576,51 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1890,19 +2629,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1916,14 +2652,14 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -1931,19 +2667,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1959,11 +2692,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1972,19 +2705,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2000,52 +2730,50 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73216A2-8D73-8E49-B5CD-D16F5DF973D7}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B6" sqref="B6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -2056,34 +2784,31 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2097,54 +2822,51 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2153,19 +2875,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2179,14 +2898,14 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -2194,19 +2913,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2222,11 +2938,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2237,65 +2953,72 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35BB403-A391-624D-B001-04F6958B9DAE}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2349,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>9</v>
@@ -2358,12 +3081,15 @@
         <v>1</v>
       </c>
       <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2414,7 +3140,7 @@
         <v>11</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>9</v>
@@ -2423,13 +3149,17 @@
         <v>10</v>
       </c>
       <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
         <v>3</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lab4/multi_control_signal.xlsx
+++ b/lab4/multi_control_signal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amy_hyunji/Documents/GitHub/Computer_Architecture/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF391567-8B89-3C42-A66B-6929759E5A96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5C1485-5EE9-6040-8673-7E97B1E96912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{E26F11E2-5A34-E744-9FCB-2E66E369145F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="82">
   <si>
     <t>IF</t>
   </si>
@@ -235,22 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>st mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jal ex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stage6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,76 +257,59 @@
     <t>stage12</t>
   </si>
   <si>
-    <t>stage13</t>
-  </si>
-  <si>
-    <t>stage14</t>
-  </si>
-  <si>
-    <t>stage15</t>
-  </si>
-  <si>
-    <t>stage16</t>
-  </si>
-  <si>
-    <t>stage17</t>
-  </si>
-  <si>
-    <t>stage18</t>
-  </si>
-  <si>
-    <t>stage19</t>
-  </si>
-  <si>
-    <t>stage20</t>
-  </si>
-  <si>
-    <t>stage21</t>
-  </si>
-  <si>
-    <t>stage22</t>
-  </si>
-  <si>
-    <t>stage23</t>
-  </si>
-  <si>
-    <t>LW WB</t>
+    <t>IF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R EX</t>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JALR EX</t>
+    <t>(JAL) EX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BR EX</t>
+    <t>(ST) MEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BR WB</t>
+    <t>(ST/LW/I) EX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LD MEM</t>
+    <t>(LW) WB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I/R WB</t>
+    <t>(R) EX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I EX</t>
+    <t>(JALR) EX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>st/LW ex</t>
+    <t>(BR) EX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JAL/JALR WB</t>
+    <t>(BR) WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(JAL/JALR/I/R) WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(LD) MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPRESENTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add/Op</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,15 +341,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -390,13 +363,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -844,600 +841,547 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E93B908-491E-5F49-8EFB-A2C9ECF345A4}">
-  <dimension ref="A3:N26"/>
+  <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
